--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/15/seed5/result_data_RandomForest.xlsx
@@ -485,10 +485,10 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.6605</v>
+        <v>-10.75659999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.004399999999993</v>
+        <v>-7.00599999999999</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.342999999999997</v>
+        <v>4.866299999999996</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.1368</v>
+        <v>-12.9691</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.597000000000001</v>
+        <v>-7.588399999999999</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.662300000000004</v>
+        <v>-7.464200000000004</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.868</v>
+        <v>-11.42469999999999</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.871300000000003</v>
+        <v>5.954500000000007</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.285900000000003</v>
+        <v>-7.063200000000006</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.43430000000001</v>
+        <v>-13.8344</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.8803</v>
+        <v>6.588799999999999</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-11.6847</v>
+        <v>-11.67250000000001</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.198400000000001</v>
+        <v>9.228500000000002</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.67339999999999</v>
+        <v>-12.7933</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.603900000000002</v>
+        <v>5.0335</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.991200000000001</v>
+        <v>-7.105500000000002</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.7285</v>
+        <v>-13.6834</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.232300000000006</v>
+        <v>7.012500000000002</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.345300000000001</v>
+        <v>-7.509800000000002</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.0072</v>
+        <v>-10.9898</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.787399999999997</v>
+        <v>4.6486</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.688599999999997</v>
+        <v>5.583399999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.120500000000003</v>
+        <v>4.7411</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.43749999999999</v>
+        <v>-14.47449999999998</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-7.963299999999995</v>
+        <v>-8.006899999999998</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.278899999999993</v>
+        <v>5.041899999999993</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.520199999999994</v>
+        <v>5.086399999999992</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.699099999999999</v>
+        <v>5.796199999999999</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.557500000000005</v>
+        <v>-7.503900000000003</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.0356</v>
+        <v>-12.90359999999999</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1842,10 +1842,10 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.129999999999996</v>
+        <v>5.264899999999995</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.4847</v>
+        <v>-13.4948</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.661900000000001</v>
+        <v>-8.692000000000005</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1893,7 +1893,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>4.880100000000003</v>
+        <v>4.905100000000001</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.980999999999999</v>
+        <v>-6.115799999999997</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1978,13 +1978,13 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.109900000000001</v>
+        <v>5.0649</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-5.938899999999999</v>
+        <v>-6.081299999999998</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-5.864400000000002</v>
+        <v>-5.892699999999999</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.366499999999999</v>
+        <v>6.767099999999996</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.497200000000006</v>
+        <v>-7.506900000000002</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>4.279999999999998</v>
+        <v>4.347299999999998</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.4494</v>
+        <v>-12.41089999999999</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,10 +2168,10 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.0578</v>
+        <v>-13.4385</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.812799999999998</v>
+        <v>-8.038599999999997</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
